--- a/深入理解JVM/constant_pool.xlsx
+++ b/深入理解JVM/constant_pool.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>常量池中的14种常量项的结构总览</t>
   </si>
@@ -55,10 +55,54 @@
     <t>u2</t>
   </si>
   <si>
-    <t>指向该字段或者方法名称常量项索引</t>
-  </si>
-  <si>
-    <t>指向该字段或方法描述符常量项索引</t>
+    <r>
+      <t>指向该字段或者方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>常量项索引</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>指向该字段或方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>描述符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>常量项索引</t>
+    </r>
   </si>
   <si>
     <t>CONSTANT_MethodHandle_Info</t>
@@ -67,6 +111,9 @@
     <t>值为15</t>
   </si>
   <si>
+    <t xml:space="preserve"> #33 = MethodHandle       #6:#48         // invokestatic java/lang/invoke/LambdaMetafactory.metafactory:(Ljava/lang/invoke/MethodHandles$Lookup;Ljava/lang/String;Ljava/lang/invoke/MethodType;Ljava/lang/invoke/MethodType;Ljava/lang/invoke/MethodHandle;Ljava/lang/invoke/MethodType;)Ljava/lang/invoke/CallSite;</t>
+  </si>
+  <si>
     <t>reference_kind</t>
   </si>
   <si>
@@ -79,6 +126,9 @@
     <t>值必须为常量池的有效索引</t>
   </si>
   <si>
+    <t>即这里的invokestatic表示方法句柄的字节码行为</t>
+  </si>
+  <si>
     <t>CONSTANT_MethodType_info</t>
   </si>
   <si>
@@ -92,6 +142,57 @@
   </si>
   <si>
     <t>值必须是对常量池的有效索引，常量池在该索引处的项必须是CONSTANT_Utf8_info结构，表示方法的描述符</t>
+  </si>
+  <si>
+    <t>CONSTANT_Fieldref_info</t>
+  </si>
+  <si>
+    <t>值为9</t>
+  </si>
+  <si>
+    <t>指向声明字段的类或者接口描述符CONSTANT_Class_info的索引项</t>
+  </si>
+  <si>
+    <t>字段所在的类</t>
+  </si>
+  <si>
+    <t>指向字段描述符CONSTANT_NameAndType_Info的索引项</t>
+  </si>
+  <si>
+    <t>字段的简单名称和描述符</t>
+  </si>
+  <si>
+    <t>CONSTANT_Methodref_info</t>
+  </si>
+  <si>
+    <t>值为10</t>
+  </si>
+  <si>
+    <t>指向声明方法的类描述符CONSTANT_Class_info的索引项</t>
+  </si>
+  <si>
+    <t>方法所在类</t>
+  </si>
+  <si>
+    <t>指向名称以及类型描述符CONSTANT_NameAndType_Info的索引项</t>
+  </si>
+  <si>
+    <t>方法的名称和描述符</t>
+  </si>
+  <si>
+    <t>CONSTANT_InterfaceMethodref_info</t>
+  </si>
+  <si>
+    <t>值为11</t>
+  </si>
+  <si>
+    <t>指向声明方法的接口描述符CONSTANT_Class_info的索引项</t>
+  </si>
+  <si>
+    <t>接口方法所在的接口</t>
+  </si>
+  <si>
+    <t>接口方法所在接口的名称和描述符</t>
   </si>
 </sst>
 </file>
@@ -99,12 +200,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +214,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -120,29 +243,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,17 +275,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,9 +289,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +328,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -211,54 +344,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,192 +402,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -488,26 +611,88 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFF60808"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF60808"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF60808"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF60808"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF0000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF0000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,15 +717,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,183 +761,285 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -819,6 +1097,7 @@
   <colors>
     <mruColors>
       <color rgb="00EFAB5A"/>
+      <color rgb="00F60808"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1087,59 +1366,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="1" max="1" width="34.75" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="53.125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="30.75" spans="1:13">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="24.75" spans="1:5">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -1148,80 +1427,123 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:24">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="45" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="33"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="45" spans="1:24">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2" t="s">
+      <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="34"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:6">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
+      <c r="A9" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1230,34 +1552,170 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:5">
-      <c r="A10" s="1"/>
+      <c r="A10" s="11"/>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1"/>
+      <c r="D10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" s="4" customFormat="1" spans="1:4">
+      <c r="A11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="30" spans="1:5">
+      <c r="A12" s="18"/>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="30" spans="1:5">
+      <c r="A13" s="18"/>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="21"/>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:5">
+      <c r="A16" s="21"/>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="22" customHeight="1" spans="1:4">
+      <c r="A17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="30" spans="1:5">
+      <c r="A18" s="23"/>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="45" spans="1:5">
+      <c r="A19" s="23"/>
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F6:X7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
